--- a/covid19_forecaster/data/models/v2/Wage Tax Analysis.xlsx
+++ b/covid19_forecaster/data/models/v2/Wage Tax Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholashand/Software/covid19-forecaster/covid19_forecaster/data/models/v2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F5CA4F-01E3-9D46-A50D-D94ADDD8FE69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F462C8-5AF8-DE4C-83BA-8C1FCD469A80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16660" activeTab="1" xr2:uid="{00A3BC13-0A2A-7E41-B5DE-1C09FE6F3600}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{00A3BC13-0A2A-7E41-B5DE-1C09FE6F3600}"/>
   </bookViews>
   <sheets>
     <sheet name="FY21-FY22 Wage Tax Scenarios" sheetId="35" r:id="rId1"/>
@@ -31,8 +31,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="66" r:id="rId12"/>
-    <pivotCache cacheId="67" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2968,6 +2968,7 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2987,7 +2988,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2996,7 +2997,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3021,7 +3022,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3610,7 +3610,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17BCFD7A-3E94-E147-B630-12698BB657AE}" name="PivotTable23" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17BCFD7A-3E94-E147-B630-12698BB657AE}" name="PivotTable23" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N32:P43" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -3698,7 +3698,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C677BB25-A08E-D74B-BE5F-3C4898307B1F}" name="PivotTable24" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C677BB25-A08E-D74B-BE5F-3C4898307B1F}" name="PivotTable24" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="N58:X69" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -4142,18 +4142,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="61" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
       <c r="K1" s="230"/>
       <c r="L1" s="230"/>
       <c r="M1" s="230"/>
@@ -4527,24 +4527,24 @@
       <c r="O21" s="230"/>
     </row>
     <row r="22" spans="1:15" s="61" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="309" t="s">
+      <c r="A22" s="310" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="309"/>
-      <c r="C22" s="309"/>
-      <c r="D22" s="309"/>
-      <c r="E22" s="309"/>
-      <c r="F22" s="309"/>
-      <c r="G22" s="309"/>
-      <c r="H22" s="309"/>
-      <c r="I22" s="309"/>
+      <c r="B22" s="310"/>
+      <c r="C22" s="310"/>
+      <c r="D22" s="310"/>
+      <c r="E22" s="310"/>
+      <c r="F22" s="310"/>
+      <c r="G22" s="310"/>
+      <c r="H22" s="310"/>
+      <c r="I22" s="310"/>
       <c r="J22" s="231"/>
       <c r="K22" s="230"/>
-      <c r="L22" s="306" t="s">
+      <c r="L22" s="307" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="307"/>
-      <c r="N22" s="308"/>
+      <c r="M22" s="308"/>
+      <c r="N22" s="309"/>
       <c r="O22" s="230"/>
     </row>
     <row r="23" spans="1:15" s="61" customFormat="1" x14ac:dyDescent="0.2">
@@ -5181,24 +5181,24 @@
       <c r="N39" s="230"/>
     </row>
     <row r="40" spans="1:14" s="61" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="309" t="s">
+      <c r="A40" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="309"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="309"/>
-      <c r="E40" s="309"/>
-      <c r="F40" s="309"/>
-      <c r="G40" s="309"/>
-      <c r="H40" s="309"/>
-      <c r="I40" s="309"/>
+      <c r="B40" s="310"/>
+      <c r="C40" s="310"/>
+      <c r="D40" s="310"/>
+      <c r="E40" s="310"/>
+      <c r="F40" s="310"/>
+      <c r="G40" s="310"/>
+      <c r="H40" s="310"/>
+      <c r="I40" s="310"/>
       <c r="J40" s="231"/>
       <c r="K40" s="230"/>
-      <c r="L40" s="306" t="s">
+      <c r="L40" s="307" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="307"/>
-      <c r="N40" s="308"/>
+      <c r="M40" s="308"/>
+      <c r="N40" s="309"/>
     </row>
     <row r="41" spans="1:14" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="230"/>
@@ -12237,7 +12237,7 @@
   </sheetPr>
   <dimension ref="A1:AG136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -12651,7 +12651,7 @@
       <c r="L8" s="238">
         <v>0.15</v>
       </c>
-      <c r="M8" s="323">
+      <c r="M8" s="304">
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="N8" s="238">
@@ -17069,12 +17069,12 @@
     <row r="73" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C73" s="37"/>
       <c r="N73" s="89"/>
-      <c r="O73" s="310" t="s">
+      <c r="O73" s="311" t="s">
         <v>79</v>
       </c>
-      <c r="P73" s="310"/>
-      <c r="Q73" s="310"/>
-      <c r="R73" s="310"/>
+      <c r="P73" s="311"/>
+      <c r="Q73" s="311"/>
+      <c r="R73" s="311"/>
       <c r="Y73" s="89" t="str">
         <f t="shared" si="43"/>
         <v>Financial activities</v>
@@ -18560,13 +18560,13 @@
     </row>
     <row r="101" spans="11:33" x14ac:dyDescent="0.2">
       <c r="AB101" s="153"/>
-      <c r="AC101" s="310" t="str">
+      <c r="AC101" s="311" t="str">
         <f>O73</f>
         <v>Non-residential recovery period</v>
       </c>
-      <c r="AD101" s="310"/>
-      <c r="AE101" s="310"/>
-      <c r="AF101" s="310"/>
+      <c r="AD101" s="311"/>
+      <c r="AE101" s="311"/>
+      <c r="AF101" s="311"/>
     </row>
     <row r="102" spans="11:33" x14ac:dyDescent="0.2">
       <c r="Y102" s="172" t="str">
@@ -19159,8 +19159,8 @@
   </sheetPr>
   <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19174,47 +19174,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="59" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="316" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="315"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="316"/>
+      <c r="K1" s="316"/>
+      <c r="L1" s="316"/>
+      <c r="M1" s="316"/>
+      <c r="N1" s="316"/>
+      <c r="O1" s="316"/>
     </row>
     <row r="2" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:15" s="59" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="B3" s="312" t="s">
+      <c r="B3" s="313" t="s">
         <v>305</v>
       </c>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="312"/>
-      <c r="H3" s="312"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="311" t="s">
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="315" t="s">
         <v>474</v>
       </c>
-      <c r="K3" s="311"/>
-      <c r="L3" s="311"/>
-      <c r="M3" s="311"/>
-      <c r="N3" s="311"/>
-      <c r="O3" s="311"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="315"/>
+      <c r="O3" s="315"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
@@ -19861,24 +19861,24 @@
       <c r="A19" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="312" t="s">
+      <c r="B19" s="313" t="s">
         <v>305</v>
       </c>
-      <c r="C19" s="312"/>
-      <c r="D19" s="312"/>
-      <c r="E19" s="312"/>
-      <c r="F19" s="312"/>
-      <c r="G19" s="312"/>
-      <c r="H19" s="312"/>
-      <c r="I19" s="313"/>
-      <c r="J19" s="311" t="s">
+      <c r="C19" s="313"/>
+      <c r="D19" s="313"/>
+      <c r="E19" s="313"/>
+      <c r="F19" s="313"/>
+      <c r="G19" s="313"/>
+      <c r="H19" s="313"/>
+      <c r="I19" s="314"/>
+      <c r="J19" s="315" t="s">
         <v>474</v>
       </c>
-      <c r="K19" s="311"/>
-      <c r="L19" s="311"/>
-      <c r="M19" s="311"/>
-      <c r="N19" s="311"/>
-      <c r="O19" s="311"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="315"/>
+      <c r="M19" s="315"/>
+      <c r="N19" s="315"/>
+      <c r="O19" s="315"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="243" t="s">
@@ -20611,24 +20611,24 @@
       <c r="A35" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="B35" s="312" t="s">
+      <c r="B35" s="313" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="312"/>
-      <c r="D35" s="312"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="312"/>
-      <c r="G35" s="312"/>
-      <c r="H35" s="312"/>
-      <c r="I35" s="313"/>
-      <c r="J35" s="311" t="s">
+      <c r="C35" s="313"/>
+      <c r="D35" s="313"/>
+      <c r="E35" s="313"/>
+      <c r="F35" s="313"/>
+      <c r="G35" s="313"/>
+      <c r="H35" s="313"/>
+      <c r="I35" s="314"/>
+      <c r="J35" s="315" t="s">
         <v>474</v>
       </c>
-      <c r="K35" s="311"/>
-      <c r="L35" s="311"/>
-      <c r="M35" s="311"/>
-      <c r="N35" s="311"/>
-      <c r="O35" s="311"/>
+      <c r="K35" s="315"/>
+      <c r="L35" s="315"/>
+      <c r="M35" s="315"/>
+      <c r="N35" s="315"/>
+      <c r="O35" s="315"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="59"/>
@@ -21373,14 +21373,14 @@
       <c r="G49" s="134"/>
       <c r="H49" s="134"/>
       <c r="I49" s="134"/>
-      <c r="J49" s="314" t="s">
+      <c r="J49" s="312" t="s">
         <v>476</v>
       </c>
-      <c r="K49" s="314"/>
-      <c r="L49" s="314"/>
-      <c r="M49" s="314"/>
-      <c r="N49" s="314"/>
-      <c r="O49" s="314"/>
+      <c r="K49" s="312"/>
+      <c r="L49" s="312"/>
+      <c r="M49" s="312"/>
+      <c r="N49" s="312"/>
+      <c r="O49" s="312"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F50" s="153" t="s">
@@ -21725,23 +21725,23 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="24" x14ac:dyDescent="0.3">
-      <c r="A65" s="315" t="s">
+      <c r="A65" s="316" t="s">
         <v>477</v>
       </c>
-      <c r="B65" s="315"/>
-      <c r="C65" s="315"/>
-      <c r="D65" s="315"/>
-      <c r="E65" s="315"/>
-      <c r="F65" s="315"/>
-      <c r="G65" s="315"/>
-      <c r="H65" s="315"/>
-      <c r="I65" s="315"/>
-      <c r="J65" s="315"/>
-      <c r="K65" s="315"/>
-      <c r="L65" s="315"/>
-      <c r="M65" s="315"/>
-      <c r="N65" s="315"/>
-      <c r="O65" s="315"/>
+      <c r="B65" s="316"/>
+      <c r="C65" s="316"/>
+      <c r="D65" s="316"/>
+      <c r="E65" s="316"/>
+      <c r="F65" s="316"/>
+      <c r="G65" s="316"/>
+      <c r="H65" s="316"/>
+      <c r="I65" s="316"/>
+      <c r="J65" s="316"/>
+      <c r="K65" s="316"/>
+      <c r="L65" s="316"/>
+      <c r="M65" s="316"/>
+      <c r="N65" s="316"/>
+      <c r="O65" s="316"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="59"/>
@@ -21758,24 +21758,24 @@
       <c r="A67" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="B67" s="312" t="s">
+      <c r="B67" s="313" t="s">
         <v>305</v>
       </c>
-      <c r="C67" s="312"/>
-      <c r="D67" s="312"/>
-      <c r="E67" s="312"/>
-      <c r="F67" s="312"/>
-      <c r="G67" s="312"/>
-      <c r="H67" s="312"/>
-      <c r="I67" s="313"/>
-      <c r="J67" s="311" t="s">
+      <c r="C67" s="313"/>
+      <c r="D67" s="313"/>
+      <c r="E67" s="313"/>
+      <c r="F67" s="313"/>
+      <c r="G67" s="313"/>
+      <c r="H67" s="313"/>
+      <c r="I67" s="314"/>
+      <c r="J67" s="315" t="s">
         <v>474</v>
       </c>
-      <c r="K67" s="311"/>
-      <c r="L67" s="311"/>
-      <c r="M67" s="311"/>
-      <c r="N67" s="311"/>
-      <c r="O67" s="311"/>
+      <c r="K67" s="315"/>
+      <c r="L67" s="315"/>
+      <c r="M67" s="315"/>
+      <c r="N67" s="315"/>
+      <c r="O67" s="315"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="59"/>
@@ -22453,24 +22453,24 @@
       <c r="A83" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="312" t="s">
+      <c r="B83" s="313" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="312"/>
-      <c r="D83" s="312"/>
-      <c r="E83" s="312"/>
-      <c r="F83" s="312"/>
-      <c r="G83" s="312"/>
-      <c r="H83" s="312"/>
-      <c r="I83" s="313"/>
-      <c r="J83" s="311" t="s">
+      <c r="C83" s="313"/>
+      <c r="D83" s="313"/>
+      <c r="E83" s="313"/>
+      <c r="F83" s="313"/>
+      <c r="G83" s="313"/>
+      <c r="H83" s="313"/>
+      <c r="I83" s="314"/>
+      <c r="J83" s="315" t="s">
         <v>474</v>
       </c>
-      <c r="K83" s="311"/>
-      <c r="L83" s="311"/>
-      <c r="M83" s="311"/>
-      <c r="N83" s="311"/>
-      <c r="O83" s="311"/>
+      <c r="K83" s="315"/>
+      <c r="L83" s="315"/>
+      <c r="M83" s="315"/>
+      <c r="N83" s="315"/>
+      <c r="O83" s="315"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="59"/>
@@ -23228,24 +23228,24 @@
       <c r="A99" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="B99" s="312" t="s">
+      <c r="B99" s="313" t="s">
         <v>305</v>
       </c>
-      <c r="C99" s="312"/>
-      <c r="D99" s="312"/>
-      <c r="E99" s="312"/>
-      <c r="F99" s="312"/>
-      <c r="G99" s="312"/>
-      <c r="H99" s="312"/>
-      <c r="I99" s="313"/>
-      <c r="J99" s="311" t="s">
+      <c r="C99" s="313"/>
+      <c r="D99" s="313"/>
+      <c r="E99" s="313"/>
+      <c r="F99" s="313"/>
+      <c r="G99" s="313"/>
+      <c r="H99" s="313"/>
+      <c r="I99" s="314"/>
+      <c r="J99" s="315" t="s">
         <v>474</v>
       </c>
-      <c r="K99" s="311"/>
-      <c r="L99" s="311"/>
-      <c r="M99" s="311"/>
-      <c r="N99" s="311"/>
-      <c r="O99" s="311"/>
+      <c r="K99" s="315"/>
+      <c r="L99" s="315"/>
+      <c r="M99" s="315"/>
+      <c r="N99" s="315"/>
+      <c r="O99" s="315"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="59"/>
@@ -23990,14 +23990,14 @@
       <c r="G113" s="134"/>
       <c r="H113" s="134"/>
       <c r="I113" s="134"/>
-      <c r="J113" s="314" t="s">
+      <c r="J113" s="312" t="s">
         <v>476</v>
       </c>
-      <c r="K113" s="314"/>
-      <c r="L113" s="314"/>
-      <c r="M113" s="314"/>
-      <c r="N113" s="314"/>
-      <c r="O113" s="314"/>
+      <c r="K113" s="312"/>
+      <c r="L113" s="312"/>
+      <c r="M113" s="312"/>
+      <c r="N113" s="312"/>
+      <c r="O113" s="312"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="59"/>
@@ -24368,13 +24368,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J113:O113"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="J67:O67"/>
-    <mergeCell ref="B83:I83"/>
-    <mergeCell ref="J83:O83"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="J99:O99"/>
     <mergeCell ref="J35:O35"/>
     <mergeCell ref="B35:I35"/>
     <mergeCell ref="J49:O49"/>
@@ -24384,6 +24377,13 @@
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="J19:O19"/>
+    <mergeCell ref="J113:O113"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="J67:O67"/>
+    <mergeCell ref="B83:I83"/>
+    <mergeCell ref="J83:O83"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="J99:O99"/>
   </mergeCells>
   <conditionalFormatting sqref="J51:O61">
     <cfRule type="colorScale" priority="1">
@@ -25332,16 +25332,16 @@
       <c r="BL10" s="117"/>
     </row>
     <row r="11" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="316" t="s">
+      <c r="A11" s="317" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="317"/>
-      <c r="C11" s="317"/>
-      <c r="D11" s="317"/>
-      <c r="E11" s="317"/>
-      <c r="F11" s="317"/>
-      <c r="G11" s="317"/>
-      <c r="H11" s="317"/>
+      <c r="B11" s="318"/>
+      <c r="C11" s="318"/>
+      <c r="D11" s="318"/>
+      <c r="E11" s="318"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="318"/>
       <c r="I11" s="117"/>
       <c r="J11" s="117"/>
       <c r="K11" s="117"/>
@@ -25466,12 +25466,12 @@
       <c r="BL13" s="117"/>
     </row>
     <row r="14" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="318" t="s">
+      <c r="A14" s="319" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="318"/>
-      <c r="C14" s="318"/>
-      <c r="D14" s="318"/>
+      <c r="B14" s="319"/>
+      <c r="C14" s="319"/>
+      <c r="D14" s="319"/>
       <c r="E14" s="100"/>
       <c r="F14" s="100"/>
       <c r="G14" s="100"/>
@@ -52488,12 +52488,12 @@
       <c r="BL170" s="117"/>
     </row>
     <row r="172" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="319" t="s">
+      <c r="A172" s="320" t="s">
         <v>250</v>
       </c>
-      <c r="B172" s="319"/>
-      <c r="C172" s="319"/>
-      <c r="D172" s="319"/>
+      <c r="B172" s="320"/>
+      <c r="C172" s="320"/>
+      <c r="D172" s="320"/>
       <c r="E172" s="117"/>
       <c r="F172" s="117"/>
       <c r="G172" s="117"/>
@@ -58724,29 +58724,29 @@
       <c r="A7" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="320" t="s">
+      <c r="B7" s="321" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="321"/>
-      <c r="D7" s="322"/>
+      <c r="C7" s="322"/>
+      <c r="D7" s="323"/>
       <c r="E7" s="57"/>
       <c r="F7" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="G7" s="320" t="s">
+      <c r="G7" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="321"/>
-      <c r="I7" s="322"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="323"/>
       <c r="J7" s="59"/>
       <c r="K7" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="L7" s="320" t="s">
+      <c r="L7" s="321" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="321"/>
-      <c r="N7" s="322"/>
+      <c r="M7" s="322"/>
+      <c r="N7" s="323"/>
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="59"/>
@@ -83032,15 +83032,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003E1B70C35E046B418A9D85CFD29C195F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b2f83a137a6e0c0c6b3a04194362cdab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c6c0e0e-8a7d-493c-8724-793e4e0d2579" xmlns:ns3="c0e0e88e-d9f0-457b-b531-cf0268a9da93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76563c0d36773e984e0a11caccd28b90" ns2:_="" ns3:_="">
     <xsd:import namespace="5c6c0e0e-8a7d-493c-8724-793e4e0d2579"/>
@@ -83231,6 +83222,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A27F74C-FF82-4A75-A664-4E12F7A9797C}">
   <ds:schemaRefs>
@@ -83241,14 +83241,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F49528A-7D3D-4129-A9A5-E0D628BA1B28}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06089994-F14E-4C87-9048-EE1C243EC10E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -83265,4 +83257,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F49528A-7D3D-4129-A9A5-E0D628BA1B28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>